--- a/biology/Botanique/Hymenophyllum_acanthoides/Hymenophyllum_acanthoides.xlsx
+++ b/biology/Botanique/Hymenophyllum_acanthoides/Hymenophyllum_acanthoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum acanthoides est une fougère de la famille des Hyménophyllacées.
 Synonymes : Didymoglossum acanthoides Bosch, Leptocionium acanthoides (Bosch) Bosch, Meringium acanthoides (Bosch) Copel..
@@ -512,13 +524,15 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum acanthoides appartient au sous-genre Hymenophyllum.
-Cette espèce a été décrite une première fois par Roelof Benjamin van den Bosch en 1856 sous le nom de Didymoglossum acanthoides[1].
-En 1861, il la replace dans le genre Leptocionium : Leptocionium acanthoides[2].
-En 1911, Eduard Rosenstock la classe dans le genre Hymenophyllum[3].
-Mais en 1938, Edwin Bingham Copeland la classe dans le genre Meringium : Meringium acanthoides[4].
+Cette espèce a été décrite une première fois par Roelof Benjamin van den Bosch en 1856 sous le nom de Didymoglossum acanthoides.
+En 1861, il la replace dans le genre Leptocionium : Leptocionium acanthoides.
+En 1911, Eduard Rosenstock la classe dans le genre Hymenophyllum.
+Mais en 1938, Edwin Bingham Copeland la classe dans le genre Meringium : Meringium acanthoides.
 Enfin, tant Conrad Vernon Morton en 1968 que Atsushi Ebihara et al. en 2005 la replacent dans le genre Hymenophyllum.
 </t>
         </is>
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette espèce a les caractéristiques suivantes :
 son rhizome est long et filiforme ;
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, terrestre, est présente en Chine, Indonésie, Philippines et Thaïlande.
 </t>
